--- a/tests/test_import/data_files_for_import_tests/data_file_study_labels_merge.xlsx
+++ b/tests/test_import/data_files_for_import_tests/data_file_study_labels_merge.xlsx
@@ -154,9 +154,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>famhhist_cardiomyopathy</t>
-  </si>
-  <si>
     <t>famhist_encephalopathy</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>famhist_cardiovasc</t>
+  </si>
+  <si>
+    <t>famhist_cardiomyopathy</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,28 +577,28 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
         <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -629,29 +629,29 @@
       <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
+      <c r="J2" t="s">
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -683,28 +683,28 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -736,28 +736,28 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -789,28 +789,28 @@
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -842,28 +842,28 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
